--- a/project/excel/schema_hackathon.xlsx
+++ b/project/excel/schema_hackathon.xlsx
@@ -4,13 +4,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Human" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mammal" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Human1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mammal1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialContainer" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialEntity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MatSampProc" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialContainer1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialEntity1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MatSampProc1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue1" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,12 +433,43 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mammal_eye_color</t>
+          <t>container_type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Human_human_full_name</t>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_value</t>
         </is>
       </c>
     </row>
@@ -458,7 +495,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mammal_eye_color</t>
+          <t>id</t>
         </is>
       </c>
     </row>
@@ -473,6 +510,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collected_into</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>material_input</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>material_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -484,21 +588,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mammal_eye_color</t>
+          <t>has_unit</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Human_human_full_name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>has_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>container_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -515,7 +650,74 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mammal_eye_color</t>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collected_into</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>material_input</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>material_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
         </is>
       </c>
     </row>

--- a/project/excel/schema_hackathon.xlsx
+++ b/project/excel/schema_hackathon.xlsx
@@ -4,19 +4,23 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="13" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialContainer" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialEntity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MatSampProc" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialContainer1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialEntity1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MatSampProc1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dissolving" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialContainer" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialEntity" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MatSampProc" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shaker" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dissolving1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialContainer1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialEntity1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MatSampProc1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shaker1" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -422,6 +426,158 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>material_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material_output</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>container</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>shaker_selection</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>solvent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"deionized_water"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"deionized_water"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collected_into</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material_input</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>material_output</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -433,6 +589,73 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>shake_speed</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>shake_time</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>shaker_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>container_type</t>
         </is>
       </c>
@@ -443,11 +666,112 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+  <dataValidations count="2">
+    <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"screw_top_conical"</formula1>
+    </dataValidation>
+    <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"screw_top_conical"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collected_into</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material_input</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>material_output</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>amount</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -464,114 +788,116 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>has_unit</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>shake_speed</t>
+        </is>
+      </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>amount</t>
+          <t>shake_time</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>shaker_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"orbital"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"orbital"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>material_input</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>collected_into</t>
+          <t>material_output</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>material_input</t>
+          <t>container</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>material_output</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>shaker_selection</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>solvent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -588,42 +914,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_unit</t>
+          <t>container_type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>container_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
           <t>size</t>
         </is>
       </c>
@@ -631,97 +926,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collected_into</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>material_input</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>material_output</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/excel/schema_hackathon.xlsx
+++ b/project/excel/schema_hackathon.xlsx
@@ -4,23 +4,27 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="13" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="17" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dissolving" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialContainer" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialEntity" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MatSampProc" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shaker" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dissolving1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialContainer1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialEntity1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MatSampProc1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shaker1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Database" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DissolvingProcess" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LabDevice" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialContainer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialSample" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialSamplingProcess" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReactionActivity" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Database1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DissolvingProcess1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LabDevice1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialContainer1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialSample1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MaterialSamplingProcess1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NamedThing1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="QuantityValue1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReactionActivity1" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,6 +441,108 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>material_sample_set</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dissolving_process_set</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>material_sampling_process_set</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>reaction_activity_set</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>material_sample_set</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dissolving_process_set</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>material_sampling_process_set</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>reaction_activity_set</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>material_input</t>
         </is>
       </c>
@@ -447,31 +553,339 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>dissolution_aided_by</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>shaker_selection</t>
+          <t>dissolution_reagent</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>solvent</t>
+          <t>dissolution_volume</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>dissolved_in</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>device_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>process_speed</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>process_temperature</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>process_time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>container_size</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>container_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>collected_into</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material_input</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>material_output</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>amount_collected</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>sampling_method</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>material_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material_output</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>reaction_time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>reaction_aided_by</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>reaction_temperature</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>material_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material_output</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dissolution_aided_by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dissolution_reagent</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>dissolution_volume</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>dissolved_in</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"deionized_water"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"deionized_water"</formula1>
     </dataValidation>
   </dataValidations>
@@ -479,33 +893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -522,155 +910,70 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>collected_into</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>material_input</t>
+          <t>device_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>process_speed</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>material_output</t>
+          <t>process_temperature</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_unit</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>shake_speed</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>shake_time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>shaker_type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>container_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>size</t>
+          <t>process_time</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"orbital_shaker,thermomixer"</formula1>
+    </dataValidation>
+    <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"orbital_shaker,thermomixer"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>container_size</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>container_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"screw_top_conical"</formula1>
     </dataValidation>
-    <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"screw_top_conical"</formula1>
     </dataValidation>
   </dataValidations>
@@ -678,22 +981,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
@@ -704,13 +1012,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,123 +1044,97 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>amount</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_unit</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>shake_speed</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>shake_time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>shaker_type</t>
+          <t>amount_collected</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>sampling_method</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"orbital"</formula1>
+    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"weighing"</formula1>
     </dataValidation>
-    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"orbital"</formula1>
+    <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"weighing"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,53 +1155,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>container</t>
+          <t>reaction_time</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>shaker_selection</t>
+          <t>reaction_aided_by</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>solvent</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>container_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>size</t>
+          <t>reaction_temperature</t>
         </is>
       </c>
     </row>

--- a/project/excel/schema_hackathon.xlsx
+++ b/project/excel/schema_hackathon.xlsx
@@ -451,12 +451,63 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>dissolving_process_set</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>material_sample_set</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>material_sampling_process_set</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>reaction_activity_set</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dissolving_process_set</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>dissolving_process_set</t>
+          <t>material_sample_set</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -475,7 +526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -492,6 +543,129 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>dissolution_aided_by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dissolution_reagent</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dissolution_volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dissolved_in</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>material_input</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>material_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>device_type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>process_speed</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>process_temperature</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>process_time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>container_size</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>container_type</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
@@ -500,392 +674,218 @@
           <t>id</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>amount_collected</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>collected_into</t>
+        </is>
+      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>material_sample_set</t>
+          <t>material_input</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>dissolving_process_set</t>
+          <t>material_output</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>material_sampling_process_set</t>
+          <t>sampling_method</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>has_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>material_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>material_output</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>reaction_aided_by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>reaction_temperature</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>reaction_time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>dissolution_aided_by</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dissolution_reagent</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>dissolution_volume</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dissolved_in</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>material_input</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>reaction_activity_set</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>material_input</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
           <t>material_output</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>dissolution_aided_by</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>dissolution_reagent</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>dissolution_volume</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>dissolved_in</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>device_type</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>process_speed</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>process_temperature</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>process_time</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>container_size</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>container_type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>collected_into</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>material_input</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>material_output</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>amount_collected</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>sampling_method</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_value</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_unit</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>material_input</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>material_output</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>reaction_time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>reaction_aided_by</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>reaction_temperature</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>material_input</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>material_output</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>dissolution_aided_by</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>dissolution_reagent</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>dissolution_volume</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>dissolved_in</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"deionized_water"</formula1>
     </dataValidation>
-    <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"deionized_water"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1029,22 +1029,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>amount_collected</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>collected_into</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>material_input</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>material_output</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>amount_collected</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -1114,14 +1114,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>has_unit</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>has_value</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>has_unit</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1155,19 +1155,19 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>reaction_aided_by</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>reaction_temperature</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>reaction_time</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>reaction_aided_by</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>reaction_temperature</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
